--- a/data/trans_dic/P35_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P35_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe alcohol diariamente</t>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,46%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,75%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 31,06</t>
+          <t>15,21; 31,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,45; 36,63</t>
+          <t>27,27; 41,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,76; 36,4</t>
+          <t>23,46; 36,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,63; 22,83</t>
+          <t>13,08; 30,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,99</t>
+          <t>2,19; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,26</t>
+          <t>2,72; 7,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,42</t>
+          <t>1,87; 5,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,23</t>
+          <t>2,19; 8,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 16,54</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>14,84; 22,11</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 18,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 15,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>4,37%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>12,49%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,42; 22,07</t>
+          <t>15,81; 24,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 18,32</t>
+          <t>12,9; 19,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,95</t>
+          <t>12,37; 18,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 15,89</t>
+          <t>12,09; 20,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,05</t>
+          <t>4,21; 9,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,1</t>
+          <t>3,0; 6,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 14,53</t>
+          <t>3,1; 6,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,66</t>
+          <t>3,5; 8,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 15,52</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8,44; 12,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 12,0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 13,41</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>11,17%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,98; 24,67</t>
+          <t>16,7; 28,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 20,19</t>
+          <t>14,47; 22,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 22,35</t>
+          <t>14,34; 21,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 14,3</t>
+          <t>9,43; 17,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,54</t>
+          <t>3,87; 9,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,38</t>
+          <t>5,98; 11,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 15,87</t>
+          <t>3,25; 6,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 13,86</t>
+          <t>5,97; 12,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 17,2</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 15,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 13,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 13,7</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,2; 22,71</t>
+          <t>16,12; 24,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 21,01</t>
+          <t>9,44; 16,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,44; 21,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,61</t>
+          <t>16,04; 25,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,11</t>
+          <t>4,41; 8,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,01</t>
+          <t>2,49; 6,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 13,31</t>
+          <t>1,73; 5,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 12,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 15,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 10,61</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,7; 15,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18,17; 23,27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 20,68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 21,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,13; 19,72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 7,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 6,6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 5,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 6,91</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 14,76</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 13,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 12,86</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 12,74</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,85%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>77183</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>182233</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>215803</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>94004</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19230</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30106</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30345</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>28618</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>96413</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>212339</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>246148</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>122622</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>51603; 106763</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>144603; 220035</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>170834; 262248</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>58505; 134883</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9236; 34633</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17397; 50070</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16770; 48915</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13968; 53956</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>68311; 125856</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>173492; 258480</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>201301; 300709</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>84885; 170469</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>184042</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>194629</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>245731</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>164924</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63047</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56034</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65749</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63968</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>247089</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>250663</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>311479</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>228892</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>147049; 230461</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>155741; 240451</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>200625; 300794</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>128371; 214165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42141; 91693</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36634; 80241</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46619; 91133</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37675; 95755</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>201080; 299441</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>205006; 304180</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>261335; 375281</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>181770; 287051</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>159380</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>155376</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>195557</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>109448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47574</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76675</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55655</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78235</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>206954</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>232051</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>251212</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>187683</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>119482; 204054</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>121963; 193738</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>155672; 234841</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78371; 147602</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29778; 73073</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56274; 103816</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37778; 76166</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53140; 107411</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>157597; 255364</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>190729; 274677</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>207606; 298252</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>146140; 235883</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>283892</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>224243</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89616</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31355</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29457</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>373508</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>137505</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>253700</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>234895; 357277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80687; 138841</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>175086; 280633</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61653; 120933</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18990; 50919</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>16893; 49646</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>316282; 453860</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>104897; 171531</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>200795; 312914</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>704497</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>638387</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>657091</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>592619</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>219468</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>194171</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>151749</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>200279</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>923965</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>832558</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>808839</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>792897</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>625302; 800805</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>561553; 710430</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>583222; 738783</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>519261; 676755</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>178363; 271195</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>161018; 235259</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>123247; 189264</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>155155; 247548</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>826585; 1037781</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>752307; 912991</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>727370; 900101</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>703888; 893440</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
